--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/dsancho_estudiantec_cr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edubi\OneDrive - Estudiantes ITCR\Tercer Semestre\Analisis de algoritmos\Proyectos\Proyecto_1\PrograAnalisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{5856E10B-D51E-4E7B-BE57-4D0688C99A4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6957EFFA-F949-45DE-A4E4-CB54E4CC28AC}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{5856E10B-D51E-4E7B-BE57-4D0688C99A4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8210D3CD-5234-4902-992C-31C039BA3A45}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{687355B6-691C-459C-84A2-8829175F955A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{687355B6-691C-459C-84A2-8829175F955A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arboles" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>Tamaño</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Algoritmo en anchura grafos</t>
+  </si>
+  <si>
+    <t>500/5000</t>
   </si>
 </sst>
 </file>
@@ -571,25 +574,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B58FF20-9A78-4139-8B94-B8EC5196C174}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.05078125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="56.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -624,7 +627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -632,7 +635,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
@@ -668,7 +671,7 @@
         <v>4.9940089865202193</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>5000</v>
       </c>
@@ -704,7 +707,7 @@
         <v>1.9997000899730082</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -728,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I19" si="2">B7/B6</f>
+        <f t="shared" ref="I6:I18" si="2">B7/B6</f>
         <v>1.9999000099990001</v>
       </c>
       <c r="J6">
@@ -740,7 +743,7 @@
         <v>1.9998500224966256</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>20000</v>
       </c>
@@ -776,7 +779,7 @@
         <v>1.9999250056245781</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>40000</v>
       </c>
@@ -812,7 +815,7 @@
         <v>1.2499906253515494</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>50000</v>
       </c>
@@ -848,12 +851,12 @@
         <v>9.997300809757073</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -870,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -880,7 +883,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
@@ -923,7 +926,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>5000</v>
       </c>
@@ -962,11 +965,11 @@
         <v>1.9997334044254866</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f>E15/E14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>10000</v>
       </c>
@@ -1005,11 +1008,11 @@
         <v>1.9998666844420745</v>
       </c>
       <c r="L15" t="e">
-        <f t="shared" si="1"/>
+        <f>E16/E15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>20000</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>40000</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>50000</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f>B19/B18</f>
         <v>0</v>
       </c>
       <c r="J18">
@@ -1134,8 +1137,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="21" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1153,24 +1156,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8CC830-B74C-41D2-8B54-8A3B3A117083}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.3125" customWidth="1"/>
-    <col min="3" max="3" width="12.9453125" customWidth="1"/>
-    <col min="4" max="4" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="56.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>500</v>
       </c>
@@ -1275,15 +1278,15 @@
         <v>0.5</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="0">B5/B4</f>
+        <f t="shared" ref="I4:I7" si="0">B5/B4</f>
         <v>3.9959960239679684</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J8" si="1">C5/C4</f>
+        <f t="shared" ref="J4:J7" si="1">C5/C4</f>
         <v>3.9959900439717928</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="2">D5/D4</f>
+        <f t="shared" ref="K4:K7" si="2">D5/D4</f>
         <v>3.9969925232450394</v>
       </c>
       <c r="L4">
@@ -1291,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>3.1785714285714284</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>4000</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>1.7865168539325842</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>5000</v>
       </c>
@@ -1463,12 +1466,12 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="56.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>500</v>
       </c>
@@ -1573,23 +1576,23 @@
         <v>0.5</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I17" si="5">B14/B13</f>
+        <f t="shared" ref="I13:I16" si="5">B14/B13</f>
         <v>3.9919961116002596</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J17" si="6">C14/C13</f>
+        <f t="shared" ref="J13:J16" si="6">C14/C13</f>
         <v>3.9919841914869885</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K17" si="7">D14/D13</f>
+        <f t="shared" ref="K13:K16" si="7">D14/D13</f>
         <v>3.9919901515317515</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L17" si="8">E14/E13</f>
+        <f t="shared" ref="L13:L16" si="8">E14/E13</f>
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>1000</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>2000</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>3.3103448275862069</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>4000</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>5000</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <f>A17/A13</f>
@@ -1761,8 +1764,8 @@
         <v>22.857142857142858</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="19" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1985,18 +1988,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2019,26 +2022,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB3B8D0-AE41-46F9-9C28-90B1A91F38FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="12a5a582-01dc-4045-9dc8-16a1cba1a373"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eb33805b-88a9-40a3-8f3b-568156ed15a3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6368A743-DB7E-46CA-8AF6-F2FE0119493B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB3B8D0-AE41-46F9-9C28-90B1A91F38FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="12a5a582-01dc-4045-9dc8-16a1cba1a373"/>
-    <ds:schemaRef ds:uri="eb33805b-88a9-40a3-8f3b-568156ed15a3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>